--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1702,28 +1702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.716519628611</v>
+        <v>296.3460446923717</v>
       </c>
       <c r="AB2" t="n">
-        <v>334.8319382866022</v>
+        <v>405.4737322128888</v>
       </c>
       <c r="AC2" t="n">
-        <v>302.8760480362054</v>
+        <v>366.7758882964474</v>
       </c>
       <c r="AD2" t="n">
-        <v>244716.519628611</v>
+        <v>296346.0446923717</v>
       </c>
       <c r="AE2" t="n">
-        <v>334831.9382866021</v>
+        <v>405473.7322128888</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.06333956252926e-06</v>
+        <v>4.416307635966746e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>302876.0480362054</v>
+        <v>366775.8882964473</v>
       </c>
     </row>
     <row r="3">
@@ -1808,28 +1808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.2108963674665</v>
+        <v>156.1963406084882</v>
       </c>
       <c r="AB3" t="n">
-        <v>178.1602929092108</v>
+        <v>213.7147241166502</v>
       </c>
       <c r="AC3" t="n">
-        <v>161.1569246035471</v>
+        <v>193.3180907975174</v>
       </c>
       <c r="AD3" t="n">
-        <v>130210.8963674665</v>
+        <v>156196.3406084882</v>
       </c>
       <c r="AE3" t="n">
-        <v>178160.2929092108</v>
+        <v>213714.7241166502</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.607520392296753e-06</v>
+        <v>6.64249818736126e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.595052083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>161156.9246035471</v>
+        <v>193318.0907975174</v>
       </c>
     </row>
     <row r="4">
@@ -1914,28 +1914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>130.2649675623666</v>
+        <v>156.2504118033883</v>
       </c>
       <c r="AB4" t="n">
-        <v>178.2342755035259</v>
+        <v>213.7887067109652</v>
       </c>
       <c r="AC4" t="n">
-        <v>161.2238464028959</v>
+        <v>193.3850125968663</v>
       </c>
       <c r="AD4" t="n">
-        <v>130264.9675623666</v>
+        <v>156250.4118033883</v>
       </c>
       <c r="AE4" t="n">
-        <v>178234.2755035259</v>
+        <v>213788.7067109653</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.61368255051458e-06</v>
+        <v>6.651381951578688e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.588541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>161223.8464028959</v>
+        <v>193385.0125968663</v>
       </c>
     </row>
   </sheetData>
@@ -2211,28 +2211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.1541947692696</v>
+        <v>210.7386376432607</v>
       </c>
       <c r="AB2" t="n">
-        <v>242.3901847746878</v>
+        <v>288.34190115591</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.2568057366228</v>
+        <v>260.8229548000748</v>
       </c>
       <c r="AD2" t="n">
-        <v>177154.1947692696</v>
+        <v>210738.6376432607</v>
       </c>
       <c r="AE2" t="n">
-        <v>242390.1847746878</v>
+        <v>288341.90115591</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.819487655545966e-06</v>
+        <v>5.591586242593217e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.232421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>219256.8057366228</v>
+        <v>260822.9548000748</v>
       </c>
     </row>
     <row r="3">
@@ -2317,28 +2317,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.1916174873379</v>
+        <v>158.7759708527779</v>
       </c>
       <c r="AB3" t="n">
-        <v>171.2926941104662</v>
+        <v>217.24428802214</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.944759795417</v>
+        <v>196.5107980776424</v>
       </c>
       <c r="AD3" t="n">
-        <v>125191.6174873379</v>
+        <v>158775.9708527779</v>
       </c>
       <c r="AE3" t="n">
-        <v>171292.6941104662</v>
+        <v>217244.28802214</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.670022699034088e-06</v>
+        <v>6.836737550022117e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.731770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>154944.759795417</v>
+        <v>196510.7980776424</v>
       </c>
     </row>
   </sheetData>
@@ -2614,28 +2614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.5985362072824</v>
+        <v>168.5824397982207</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.2683876577093</v>
+        <v>230.6619314641645</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.3003169760522</v>
+        <v>208.6478804613452</v>
       </c>
       <c r="AD2" t="n">
-        <v>137598.5362072824</v>
+        <v>168582.4397982208</v>
       </c>
       <c r="AE2" t="n">
-        <v>188268.3876577093</v>
+        <v>230661.9314641645</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.368043142009869e-06</v>
+        <v>6.757901900987462e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.030598958333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>170300.3169760522</v>
+        <v>208647.8804613453</v>
       </c>
     </row>
   </sheetData>
@@ -2911,28 +2911,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.8770678825452</v>
+        <v>160.7923377289309</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.3352899317828</v>
+        <v>220.0031701379196</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.5060973488764</v>
+        <v>199.0063763564083</v>
       </c>
       <c r="AD2" t="n">
-        <v>128877.0678825452</v>
+        <v>160792.3377289309</v>
       </c>
       <c r="AE2" t="n">
-        <v>176335.2899317828</v>
+        <v>220003.1701379196</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.592221860385803e-06</v>
+        <v>6.940197199336758e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.307942708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>159506.0973488764</v>
+        <v>199006.3763564083</v>
       </c>
     </row>
   </sheetData>
@@ -3208,28 +3208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.9150660207361</v>
+        <v>180.1504020778513</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.1204071154147</v>
+        <v>246.4897277976247</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.5440033486774</v>
+        <v>222.9650941271967</v>
       </c>
       <c r="AD2" t="n">
-        <v>149915.0660207361</v>
+        <v>180150.4020778513</v>
       </c>
       <c r="AE2" t="n">
-        <v>205120.4071154147</v>
+        <v>246489.7277976247</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.033212337952537e-06</v>
+        <v>6.374443662635307e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.033203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>185544.0033486774</v>
+        <v>222965.0941271967</v>
       </c>
     </row>
   </sheetData>
@@ -3505,28 +3505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.6161334087091</v>
+        <v>231.9017058163385</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.4411590030915</v>
+        <v>317.2981446789748</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.6804589158657</v>
+        <v>287.0156550816505</v>
       </c>
       <c r="AD2" t="n">
-        <v>189616.1334087091</v>
+        <v>231901.7058163385</v>
       </c>
       <c r="AE2" t="n">
-        <v>259441.1590030915</v>
+        <v>317298.1446789748</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.618532030619269e-06</v>
+        <v>5.275408233415998e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.610026041666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>234680.4589158657</v>
+        <v>287015.6550816505</v>
       </c>
     </row>
     <row r="3">
@@ -3611,28 +3611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.5520941010471</v>
+        <v>160.3634838562364</v>
       </c>
       <c r="AB3" t="n">
-        <v>173.1541582333345</v>
+        <v>219.4163933496016</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.6285683949807</v>
+        <v>198.4756007212208</v>
       </c>
       <c r="AD3" t="n">
-        <v>126552.0941010471</v>
+        <v>160363.4838562364</v>
       </c>
       <c r="AE3" t="n">
-        <v>173154.1582333345</v>
+        <v>219416.3933496016</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.649800258793324e-06</v>
+        <v>6.778880043457897e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.702473958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>156628.5683949807</v>
+        <v>198475.6007212208</v>
       </c>
     </row>
   </sheetData>
@@ -3908,28 +3908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.6730623559334</v>
+        <v>191.8498722611519</v>
       </c>
       <c r="AB2" t="n">
-        <v>211.6305076092121</v>
+        <v>262.4974590466053</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.4327889883323</v>
+        <v>237.4450699727716</v>
       </c>
       <c r="AD2" t="n">
-        <v>154673.0623559334</v>
+        <v>191849.8722611518</v>
       </c>
       <c r="AE2" t="n">
-        <v>211630.5076092121</v>
+        <v>262497.4590466053</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.76782472829913e-06</v>
+        <v>6.036940268014888e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.895833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>191432.7889883323</v>
+        <v>237445.0699727716</v>
       </c>
     </row>
   </sheetData>
@@ -4205,28 +4205,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.99131064537</v>
+        <v>161.6910386198394</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.4375548550001</v>
+        <v>221.232812344745</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.5487776899522</v>
+        <v>200.1186632368284</v>
       </c>
       <c r="AD2" t="n">
-        <v>136991.31064537</v>
+        <v>161691.0386198394</v>
       </c>
       <c r="AE2" t="n">
-        <v>187437.5548550001</v>
+        <v>221232.812344745</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.468846477133986e-06</v>
+        <v>6.635536290588406e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.249348958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>169548.7776899522</v>
+        <v>200118.6632368284</v>
       </c>
     </row>
     <row r="3">
@@ -4311,28 +4311,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.6327884075632</v>
+        <v>155.4802988408828</v>
       </c>
       <c r="AB3" t="n">
-        <v>167.7915912759485</v>
+        <v>212.7350041806796</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.7777973015959</v>
+        <v>192.43187395719</v>
       </c>
       <c r="AD3" t="n">
-        <v>122632.7884075632</v>
+        <v>155480.2988408828</v>
       </c>
       <c r="AE3" t="n">
-        <v>167791.5912759484</v>
+        <v>212735.0041806796</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.666579524321845e-06</v>
+        <v>6.929138860552981e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.940104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>151777.7973015959</v>
+        <v>192431.87395719</v>
       </c>
     </row>
   </sheetData>
@@ -4608,28 +4608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.4969398695494</v>
+        <v>189.9309643561357</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.1260172871373</v>
+        <v>259.8719245947215</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.6901307250669</v>
+        <v>235.0701128440139</v>
       </c>
       <c r="AD2" t="n">
-        <v>156496.9398695494</v>
+        <v>189930.9643561357</v>
       </c>
       <c r="AE2" t="n">
-        <v>214126.0172871373</v>
+        <v>259871.9245947215</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.039950375369068e-06</v>
+        <v>5.940514645568561e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.858072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>193690.1307250669</v>
+        <v>235070.112844014</v>
       </c>
     </row>
     <row r="3">
@@ -4714,28 +4714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.289627704928</v>
+        <v>157.6383113369428</v>
       </c>
       <c r="AB3" t="n">
-        <v>170.0585518971929</v>
+        <v>215.6876920825795</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.8284023828487</v>
+        <v>195.1027614698569</v>
       </c>
       <c r="AD3" t="n">
-        <v>124289.627704928</v>
+        <v>157638.3113369428</v>
       </c>
       <c r="AE3" t="n">
-        <v>170058.5518971929</v>
+        <v>215687.6920825795</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.667091390341647e-06</v>
+        <v>6.862689434396505e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.800130208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>153828.4023828487</v>
+        <v>195102.761469857</v>
       </c>
     </row>
   </sheetData>
@@ -5011,28 +5011,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.5975496478406</v>
+        <v>270.336933488897</v>
       </c>
       <c r="AB2" t="n">
-        <v>311.4090083232701</v>
+        <v>369.8869188232908</v>
       </c>
       <c r="AC2" t="n">
-        <v>281.6885696342777</v>
+        <v>334.5854304303463</v>
       </c>
       <c r="AD2" t="n">
-        <v>227597.5496478406</v>
+        <v>270336.933488897</v>
       </c>
       <c r="AE2" t="n">
-        <v>311409.0083232701</v>
+        <v>369886.9188232908</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.239819542992251e-06</v>
+        <v>4.687281841358589e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.456380208333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>281688.5696342777</v>
+        <v>334585.4304303463</v>
       </c>
     </row>
     <row r="3">
@@ -5117,28 +5117,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.7224345586961</v>
+        <v>162.9650745374407</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.1237137961517</v>
+        <v>222.9760044937041</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.314713742681</v>
+        <v>201.6954875736769</v>
       </c>
       <c r="AD3" t="n">
-        <v>128722.4345586961</v>
+        <v>162965.0745374407</v>
       </c>
       <c r="AE3" t="n">
-        <v>176123.7137961517</v>
+        <v>222976.0044937041</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.633341924200276e-06</v>
+        <v>6.70339170991332e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.611328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>159314.713742681</v>
+        <v>201695.4875736769</v>
       </c>
     </row>
     <row r="4">
@@ -5223,28 +5223,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>129.1001953112764</v>
+        <v>163.3428352900211</v>
       </c>
       <c r="AB4" t="n">
-        <v>176.6405827234601</v>
+        <v>223.4928734210125</v>
       </c>
       <c r="AC4" t="n">
-        <v>159.7822534249973</v>
+        <v>202.1630272559932</v>
       </c>
       <c r="AD4" t="n">
-        <v>129100.1953112764</v>
+        <v>163342.8352900211</v>
       </c>
       <c r="AE4" t="n">
-        <v>176640.58272346</v>
+        <v>223492.8734210125</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.631177338884697e-06</v>
+        <v>6.700260047390407e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.614583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>159782.2534249973</v>
+        <v>202163.0272559932</v>
       </c>
     </row>
   </sheetData>
@@ -5520,28 +5520,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.4224272175665</v>
+        <v>153.709944425714</v>
       </c>
       <c r="AB2" t="n">
-        <v>177.0814746335143</v>
+        <v>210.3127271673224</v>
       </c>
       <c r="AC2" t="n">
-        <v>160.1810672299518</v>
+        <v>190.2407756622996</v>
       </c>
       <c r="AD2" t="n">
-        <v>129422.4272175665</v>
+        <v>153709.944425714</v>
       </c>
       <c r="AE2" t="n">
-        <v>177081.4746335143</v>
+        <v>210312.7271673224</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.620171331601947e-06</v>
+        <v>6.938040202871372e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.174479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>160181.0672299518</v>
+        <v>190240.7756622996</v>
       </c>
     </row>
     <row r="3">
@@ -5626,28 +5626,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.8282994874716</v>
+        <v>154.1158166956192</v>
       </c>
       <c r="AB3" t="n">
-        <v>177.6368069790191</v>
+        <v>210.8680595128271</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.6833994358156</v>
+        <v>190.7431078681634</v>
       </c>
       <c r="AD3" t="n">
-        <v>129828.2994874717</v>
+        <v>154115.8166956192</v>
       </c>
       <c r="AE3" t="n">
-        <v>177636.8069790191</v>
+        <v>210868.0595128271</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.621189483863308e-06</v>
+        <v>6.939569146457002e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.171223958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>160683.3994358156</v>
+        <v>190743.1078681634</v>
       </c>
     </row>
   </sheetData>
@@ -5923,28 +5923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.1137523285575</v>
+        <v>160.5465202968788</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.6591320325973</v>
+        <v>219.6668318826862</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.7990324141046</v>
+        <v>198.7021377522006</v>
       </c>
       <c r="AD2" t="n">
-        <v>129113.7523285575</v>
+        <v>160546.5202968788</v>
       </c>
       <c r="AE2" t="n">
-        <v>176659.1320325973</v>
+        <v>219666.8318826862</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.462378366157897e-06</v>
+        <v>6.844158311374828e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.737630208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>159799.0324141046</v>
+        <v>198702.1377522006</v>
       </c>
     </row>
   </sheetData>
@@ -9617,28 +9617,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.3411900553016</v>
+        <v>169.9289790696463</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.6527635330299</v>
+        <v>232.504325900448</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.4571313643255</v>
+        <v>210.3144393584473</v>
       </c>
       <c r="AD2" t="n">
-        <v>139341.1900553016</v>
+        <v>169928.9790696463</v>
       </c>
       <c r="AE2" t="n">
-        <v>190652.7635330299</v>
+        <v>232504.325900448</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.224453758339168e-06</v>
+        <v>6.600625668510315e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.453776041666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>172457.1313643255</v>
+        <v>210314.4393584473</v>
       </c>
     </row>
   </sheetData>
@@ -9914,28 +9914,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>180.4934776806595</v>
+        <v>224.0734224350549</v>
       </c>
       <c r="AB2" t="n">
-        <v>246.9591389728139</v>
+        <v>306.5871419972192</v>
       </c>
       <c r="AC2" t="n">
-        <v>223.3897053586487</v>
+        <v>277.3268954628516</v>
       </c>
       <c r="AD2" t="n">
-        <v>180493.4776806594</v>
+        <v>224073.4224350548</v>
       </c>
       <c r="AE2" t="n">
-        <v>246959.1389728139</v>
+        <v>306587.1419972192</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.33856861621128e-06</v>
+        <v>5.440785592541611e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.48111979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>223389.7053586487</v>
+        <v>277326.8954628516</v>
       </c>
     </row>
   </sheetData>
@@ -10211,28 +10211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.6114614077281</v>
+        <v>178.8002439646125</v>
       </c>
       <c r="AB2" t="n">
-        <v>199.2320254222644</v>
+        <v>244.6423819023201</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.2176005399239</v>
+        <v>221.2940563313732</v>
       </c>
       <c r="AD2" t="n">
-        <v>145611.4614077281</v>
+        <v>178800.2439646125</v>
       </c>
       <c r="AE2" t="n">
-        <v>199232.0254222644</v>
+        <v>244642.3819023201</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.267780204953856e-06</v>
+        <v>6.30513655376979e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.509765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>180217.6005399239</v>
+        <v>221294.0563313732</v>
       </c>
     </row>
     <row r="3">
@@ -10317,28 +10317,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.4273726666033</v>
+        <v>156.530814368916</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.87877651375</v>
+        <v>214.1723658716081</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.7612231061761</v>
+        <v>193.7320558656865</v>
       </c>
       <c r="AD3" t="n">
-        <v>123427.3726666033</v>
+        <v>156530.814368916</v>
       </c>
       <c r="AE3" t="n">
-        <v>168878.77651375</v>
+        <v>214172.3658716081</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.670549622976406e-06</v>
+        <v>6.900180360704084e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.861979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>152761.2231061761</v>
+        <v>193732.0558656865</v>
       </c>
     </row>
   </sheetData>
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>211.9126707727048</v>
+        <v>246.0286916440819</v>
       </c>
       <c r="AB2" t="n">
-        <v>289.9482650783008</v>
+        <v>336.6273099271124</v>
       </c>
       <c r="AC2" t="n">
-        <v>262.276009604259</v>
+        <v>304.5000719271658</v>
       </c>
       <c r="AD2" t="n">
-        <v>211912.6707727048</v>
+        <v>246028.6916440819</v>
       </c>
       <c r="AE2" t="n">
-        <v>289948.2650783008</v>
+        <v>336627.3099271124</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.42951305822691e-06</v>
+        <v>4.980232601851538e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.007161458333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>262276.009604259</v>
+        <v>304500.0719271658</v>
       </c>
     </row>
     <row r="3">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.285943987135</v>
+        <v>161.3165344953894</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.1582440226514</v>
+        <v>220.720399279717</v>
       </c>
       <c r="AC3" t="n">
-        <v>157.5368256458088</v>
+        <v>199.6551541555501</v>
       </c>
       <c r="AD3" t="n">
-        <v>127285.943987135</v>
+        <v>161316.5344953894</v>
       </c>
       <c r="AE3" t="n">
-        <v>174158.2440226514</v>
+        <v>220720.3992797169</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.653471537059525e-06</v>
+        <v>6.757627181228439e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.637369791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>157536.8256458088</v>
+        <v>199655.1541555501</v>
       </c>
     </row>
   </sheetData>
@@ -11017,28 +11017,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>224.4677723789213</v>
+        <v>281.3077432864413</v>
       </c>
       <c r="AB2" t="n">
-        <v>307.1267089879087</v>
+        <v>384.8976647862602</v>
       </c>
       <c r="AC2" t="n">
-        <v>277.8149669372369</v>
+        <v>348.163571866324</v>
       </c>
       <c r="AD2" t="n">
-        <v>224467.7723789213</v>
+        <v>281307.7432864413</v>
       </c>
       <c r="AE2" t="n">
-        <v>307126.7089879087</v>
+        <v>384897.6647862602</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.68512604866085e-06</v>
+        <v>4.47594514588055e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.78190104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>277814.9669372369</v>
+        <v>348163.5718663241</v>
       </c>
     </row>
   </sheetData>
@@ -11314,28 +11314,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.8756152877317</v>
+        <v>160.6457791909948</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.3333024274749</v>
+        <v>219.8026422806091</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.5042995291903</v>
+        <v>198.8249865963568</v>
       </c>
       <c r="AD2" t="n">
-        <v>128875.6152877317</v>
+        <v>160645.7791909948</v>
       </c>
       <c r="AE2" t="n">
-        <v>176333.3024274749</v>
+        <v>219802.6422806091</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.53508212484101e-06</v>
+        <v>6.901971515847896e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.503255208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>159504.2995291903</v>
+        <v>198824.9865963568</v>
       </c>
     </row>
   </sheetData>
@@ -11611,28 +11611,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.544463394219</v>
+        <v>156.0432163618632</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.9849381480376</v>
+        <v>213.505212767053</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.8074282616865</v>
+        <v>193.1285749170746</v>
       </c>
       <c r="AD2" t="n">
-        <v>131544.4633942189</v>
+        <v>156043.2163618632</v>
       </c>
       <c r="AE2" t="n">
-        <v>179984.9381480376</v>
+        <v>213505.212767053</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.591907655395011e-06</v>
+        <v>6.855308044697727e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.132161458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>162807.4282616865</v>
+        <v>193128.5749170746</v>
       </c>
     </row>
     <row r="3">
@@ -11717,28 +11717,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.1057359231216</v>
+        <v>154.6044888907659</v>
       </c>
       <c r="AB3" t="n">
-        <v>178.0164077499069</v>
+        <v>211.5366823689222</v>
       </c>
       <c r="AC3" t="n">
-        <v>161.026771641903</v>
+        <v>191.3479182972911</v>
       </c>
       <c r="AD3" t="n">
-        <v>130105.7359231216</v>
+        <v>154604.4888907659</v>
       </c>
       <c r="AE3" t="n">
-        <v>178016.4077499069</v>
+        <v>211536.6823689223</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.651174306189963e-06</v>
+        <v>6.94378786146834e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.041015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>161026.771641903</v>
+        <v>191347.9182972911</v>
       </c>
     </row>
   </sheetData>
